--- a/file_service/file_database/user_info.xlsx
+++ b/file_service/file_database/user_info.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Asosiy\Teloegram_bot_P\Test_bot\file_service\file_database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Asosiy\PyCharm\Test_bot\file_service\file_database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A140A81-29A1-4E3C-956B-53BCED4371A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7289BFD-63EC-4522-831A-08F5A85E349C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F8327882-5486-4026-97E6-AB91966CEF6B}"/>
   </bookViews>
@@ -34,166 +34,230 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
-  <si>
-    <t>Mirsaidova Shoxnoza Shavkat qizi</t>
-  </si>
-  <si>
-    <t>Eshonkulova Intizar Umarjanovna</t>
-  </si>
-  <si>
-    <t>Navro'zova Muqaddas Sodiqovna</t>
-  </si>
-  <si>
-    <t>Aliyeva Gulzoda Abrarjonovna</t>
-  </si>
-  <si>
-    <t>Saidbekova Ra'no Kamilevna</t>
-  </si>
-  <si>
-    <t>Tursunbayeva Ruqiyaxon Nomonjonovna</t>
-  </si>
-  <si>
-    <t>Soliyeva Fotimaxon Usmonjon qizi</t>
-  </si>
-  <si>
-    <t>Berdiyeva Mastura Abduvoxitovna</t>
-  </si>
-  <si>
-    <t>Saidova Muxlisa Saidakramovna</t>
-  </si>
-  <si>
-    <t>Karimova Gulchiroy Davronovna</t>
-  </si>
-  <si>
-    <t>Yunusxo'jayeva Durdona Erkin qizi</t>
-  </si>
-  <si>
-    <t>Abobakirova Feruzaxon Melibayevna</t>
-  </si>
-  <si>
-    <t>Mamajanova Maxliyo Kabiljanovna</t>
-  </si>
-  <si>
-    <t>Sharipova Shahnoza Sheraliyevna</t>
-  </si>
-  <si>
-    <t>Sadilloyeva Dilfuza Shuxratovna</t>
-  </si>
-  <si>
-    <t>Abdumalikova Shaxzodaxon Zoir qizi</t>
-  </si>
-  <si>
-    <t>Akbarova Faridaxon Abdujalilovna</t>
-  </si>
-  <si>
-    <t>Ibragimova Oydin Abduraximovna</t>
-  </si>
-  <si>
-    <t>Adilova Muxabbat Azatovna</t>
-  </si>
-  <si>
-    <t>Kulimova Nigarxan Baxitovna</t>
-  </si>
-  <si>
-    <t>Shaniyazova Baxtigul Jangabayevna</t>
-  </si>
-  <si>
-    <t>Kalenova Gulnara Duysenbayevna</t>
-  </si>
-  <si>
-    <t>Muxamedaliyeva Nigora Ilxamdjanovna</t>
-  </si>
-  <si>
-    <t>Ismoilova Zuhra Choriqulovna</t>
-  </si>
-  <si>
-    <t>AA9098166</t>
-  </si>
-  <si>
-    <t>AC2796019</t>
-  </si>
-  <si>
-    <t>AD8301900</t>
-  </si>
-  <si>
-    <t>AC3463807</t>
-  </si>
-  <si>
-    <t>AD3864969</t>
-  </si>
-  <si>
-    <t>AD8654843</t>
-  </si>
-  <si>
-    <t>AD4173343</t>
-  </si>
-  <si>
-    <t>AB5216197</t>
-  </si>
-  <si>
-    <t>AD2355191</t>
-  </si>
-  <si>
-    <t>AB8193948</t>
-  </si>
-  <si>
-    <t>AC2160372</t>
-  </si>
-  <si>
-    <t>AC1031249</t>
-  </si>
-  <si>
-    <t>AE1062351</t>
-  </si>
-  <si>
-    <t>AB3721581</t>
-  </si>
-  <si>
-    <t>AB1130811</t>
-  </si>
-  <si>
-    <t>AB0610253</t>
-  </si>
-  <si>
-    <t>AD3263565</t>
-  </si>
-  <si>
-    <t>AD7165826</t>
-  </si>
-  <si>
-    <t>KA0628984</t>
-  </si>
-  <si>
-    <t>KA0538364</t>
-  </si>
-  <si>
-    <t>KA0556607</t>
-  </si>
-  <si>
-    <t>KA0750758</t>
-  </si>
-  <si>
-    <t>AB2397557</t>
-  </si>
-  <si>
-    <t>AB0428162</t>
-  </si>
-  <si>
-    <t>AD3463807</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+  <si>
+    <t>Karimova Gulchexra Jo'rayevna</t>
+  </si>
+  <si>
+    <t>Kerimbayeva Alima Tulegemovna</t>
+  </si>
+  <si>
+    <t>Egamberdiyeva Oydin Anvarovna</t>
+  </si>
+  <si>
+    <t>Butayeva Xumoraxon Shuxratovna</t>
+  </si>
+  <si>
+    <t>Kurbanbayeva Dildora Kuralbay qizi</t>
+  </si>
+  <si>
+    <t>Rabbimova Lobar Hamza qizi</t>
+  </si>
+  <si>
+    <t>Utepova Munira Kidirbay qizi</t>
+  </si>
+  <si>
+    <t>Luxmonova Nodira Maxamadaliyevna</t>
+  </si>
+  <si>
+    <t>Tojiboyeva Gulirano Baxromjon qizi</t>
+  </si>
+  <si>
+    <t>Gafurova Dilfuza Sodikovna</t>
+  </si>
+  <si>
+    <t>Normatova Zamiraxon Latipovna</t>
+  </si>
+  <si>
+    <t>Meliboyeva Gulnoz Zokirovna</t>
+  </si>
+  <si>
+    <t>Xusanova Nodiraxon Giyasiddinova</t>
+  </si>
+  <si>
+    <t>Qutlimuratova Dilafruz Aldambergenovna</t>
+  </si>
+  <si>
+    <t>Mamadaliyeva Sarvinoz Mamarayimovna</t>
+  </si>
+  <si>
+    <t>Qayumova Nigoraxon O'lmasovna</t>
+  </si>
+  <si>
+    <t>Diyorov Dilshod Aliqulovich</t>
+  </si>
+  <si>
+    <t>Qurbonova Muxlisa Otaniyoz qizi</t>
+  </si>
+  <si>
+    <t>Shokirova Zilola Rozumbayevna</t>
+  </si>
+  <si>
+    <t>Roziqulova Farida Sanaqul qizi</t>
+  </si>
+  <si>
+    <t>Qodirova Go'zaloy Rashidovna</t>
+  </si>
+  <si>
+    <t>Abdullayeva Dilafruz Abdurasulovna</t>
+  </si>
+  <si>
+    <t>Abdixaymova G'aziza Anuarovna</t>
+  </si>
+  <si>
+    <t>Abdunazarova Shohida Komil qizi</t>
+  </si>
+  <si>
+    <t>Kushanova Gulchiroy Abdullajonovna</t>
+  </si>
+  <si>
+    <t>Jurayeva Sevara Bahramovna</t>
+  </si>
+  <si>
+    <t>Urinova Orzuxon Sobirjonovna</t>
+  </si>
+  <si>
+    <t>Anorboyeva Odinaxon To'ychiyevna</t>
+  </si>
+  <si>
+    <t>Turaxodjayeva Nargiza Abdullo qizi</t>
+  </si>
+  <si>
+    <t>Axmedova Sevaraxon Xayotbekovna</t>
+  </si>
+  <si>
+    <t>Ro'ziyeva Surayyo Baxtiyor qizi</t>
+  </si>
+  <si>
+    <t>Atxamova Kamola Xakimdjan qizi</t>
+  </si>
+  <si>
+    <t>Alimova Zamira Tulegenovna</t>
+  </si>
+  <si>
+    <t>Sharaxmedova Barchinoy Nabijon qizi</t>
+  </si>
+  <si>
+    <t>AC1001890</t>
+  </si>
+  <si>
+    <t>AC1054253</t>
+  </si>
+  <si>
+    <t>AD2570767</t>
+  </si>
+  <si>
+    <t>AD3834813</t>
+  </si>
+  <si>
+    <t>KA0802004</t>
+  </si>
+  <si>
+    <t>AA9698452</t>
+  </si>
+  <si>
+    <t>KA1043930</t>
+  </si>
+  <si>
+    <t>AD3089814</t>
+  </si>
+  <si>
+    <t>AB9152711</t>
+  </si>
+  <si>
+    <t>AD2367887</t>
+  </si>
+  <si>
+    <t>AD2136078</t>
+  </si>
+  <si>
+    <t>AD3544633</t>
+  </si>
+  <si>
+    <t>AA8477423</t>
+  </si>
+  <si>
+    <t>AD6171100</t>
+  </si>
+  <si>
+    <t>AD6591388</t>
+  </si>
+  <si>
+    <t>AD1672152</t>
+  </si>
+  <si>
+    <t>AD6258252</t>
+  </si>
+  <si>
+    <t>AE1302605</t>
+  </si>
+  <si>
+    <t>AD5964956</t>
+  </si>
+  <si>
+    <t>AD7666578</t>
+  </si>
+  <si>
+    <t>AD9590089</t>
+  </si>
+  <si>
+    <t>AD3119515</t>
+  </si>
+  <si>
+    <t>AD6515961</t>
+  </si>
+  <si>
+    <t>AB1903929</t>
+  </si>
+  <si>
+    <t>AC2149901</t>
+  </si>
+  <si>
+    <t>AD7199914</t>
+  </si>
+  <si>
+    <t>AB0395882</t>
+  </si>
+  <si>
+    <t>AD9500932</t>
+  </si>
+  <si>
+    <t>AB2614692</t>
+  </si>
+  <si>
+    <t>AC1802290</t>
+  </si>
+  <si>
+    <t>AD3588705</t>
+  </si>
+  <si>
+    <t>AD2064323</t>
+  </si>
+  <si>
+    <t>AC2073604</t>
+  </si>
+  <si>
+    <t>AB5558178</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -245,7 +309,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -281,31 +345,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{0F92268D-311C-435E-B144-371CAA7F111F}"/>
     <cellStyle name="Обычный 3" xfId="2" xr:uid="{3982CAE8-D2DF-4E76-8584-004640A1DCF4}"/>
+    <cellStyle name="Обычный 4" xfId="3" xr:uid="{D8E723DD-1C68-4B0F-8762-8070683579EA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -617,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE446B00-E943-4285-BD80-74BDDDA275C7}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="C32" sqref="C32:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,278 +712,377 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="B25" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="B26" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="B27" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="B28" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="B29" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="B30" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="B31" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="B32" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="B33" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="4">
-        <v>4</v>
+      <c r="B34" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
